--- a/三现/问题跟踪/三一重卡-20200619.xlsx
+++ b/三现/问题跟踪/三一重卡-20200619.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="生产区域" sheetId="1" r:id="rId1"/>
@@ -2319,12 +2319,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2413,21 +2413,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,14 +2427,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2457,16 +2441,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2478,14 +2503,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2499,9 +2532,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2515,69 +2556,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2592,7 +2577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2604,7 +2601,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,13 +2703,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,7 +2739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2646,133 +2763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2834,6 +2825,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2845,30 +2845,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2890,29 +2866,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2931,157 +2889,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3139,6 +3130,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3166,6 +3160,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3181,7 +3187,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3190,13 +3199,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3211,7 +3226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3220,7 +3235,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,13 +3244,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3559,39 +3580,39 @@
   <sheetPr/>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="J40" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="J38" workbookViewId="0">
+      <selection activeCell="J65" sqref="$A65:$XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.21666666666667" customWidth="1"/>
     <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
-    <col min="3" max="4" width="12.1083333333333" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.8833333333333" style="19" customWidth="1"/>
+    <col min="3" max="4" width="12.1083333333333" style="52" customWidth="1"/>
+    <col min="5" max="5" width="16.8833333333333" style="20" customWidth="1"/>
     <col min="6" max="6" width="7.775" customWidth="1"/>
-    <col min="7" max="7" width="35.6666666666667" style="19" customWidth="1"/>
-    <col min="8" max="8" width="22.8833333333333" style="19" customWidth="1"/>
-    <col min="9" max="9" width="15.1083333333333" style="19" customWidth="1"/>
+    <col min="7" max="7" width="35.6666666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.8833333333333" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.1083333333333" style="20" customWidth="1"/>
     <col min="10" max="10" width="23.4416666666667" customWidth="1"/>
-    <col min="11" max="11" width="35.4416666666667" style="19" customWidth="1"/>
+    <col min="11" max="11" width="35.4416666666667" style="20" customWidth="1"/>
     <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:11">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
@@ -3615,10 +3636,10 @@
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -3627,7 +3648,7 @@
       <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3991,41 +4012,41 @@
       </c>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" s="18" customFormat="1" spans="1:12">
-      <c r="A13" s="24">
+    <row r="13" s="19" customFormat="1" spans="1:12">
+      <c r="A13" s="29">
         <v>11</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="54">
         <v>40000</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4317,7 +4338,7 @@
       </c>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" s="42" customFormat="1" ht="30" customHeight="1" spans="1:12">
+    <row r="22" s="50" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -4351,43 +4372,43 @@
       <c r="K22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="48"/>
-    </row>
-    <row r="23" s="18" customFormat="1" spans="1:12">
-      <c r="A23" s="24">
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" s="19" customFormat="1" spans="1:12">
+      <c r="A23" s="29">
         <v>21</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="54">
         <v>40000</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="D23" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4931,41 +4952,41 @@
       </c>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" s="18" customFormat="1" spans="1:12">
-      <c r="A39" s="24">
+    <row r="39" s="19" customFormat="1" spans="1:12">
+      <c r="A39" s="29">
         <v>37</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="54">
         <v>40000</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L39" s="31" t="s">
+      <c r="L39" s="38" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5545,41 +5566,41 @@
       </c>
       <c r="L55" s="14"/>
     </row>
-    <row r="56" s="18" customFormat="1" spans="1:12">
-      <c r="A56" s="24">
+    <row r="56" s="19" customFormat="1" spans="1:12">
+      <c r="A56" s="29">
         <v>54</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="54">
         <v>40000</v>
       </c>
-      <c r="D56" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="24" t="s">
+      <c r="D56" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="H56" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="L56" s="31" t="s">
+      <c r="L56" s="38" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5727,79 +5748,79 @@
       </c>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" s="18" customFormat="1" spans="1:12">
-      <c r="A61" s="24">
+    <row r="61" s="19" customFormat="1" spans="1:12">
+      <c r="A61" s="29">
         <v>59</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="54">
         <v>40000</v>
       </c>
-      <c r="D61" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I61" s="24" t="s">
+      <c r="I61" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="24" t="s">
+      <c r="K61" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="L61" s="31" t="s">
+      <c r="L61" s="38" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" s="18" customFormat="1" spans="1:12">
-      <c r="A62" s="24">
+    <row r="62" s="19" customFormat="1" spans="1:12">
+      <c r="A62" s="29">
         <v>60</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="54">
         <v>40000</v>
       </c>
-      <c r="D62" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="24" t="s">
+      <c r="D62" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="24" t="s">
+      <c r="K62" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="L62" s="31" t="s">
+      <c r="L62" s="38" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5816,7 +5837,7 @@
       <c r="D63" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="55" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -5852,7 +5873,7 @@
       <c r="D64" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="55" t="s">
         <v>157</v>
       </c>
       <c r="F64" s="9" t="s">
@@ -5875,77 +5896,77 @@
       </c>
       <c r="L64" s="14"/>
     </row>
-    <row r="65" s="43" customFormat="1" spans="1:12">
-      <c r="A65" s="24">
+    <row r="65" s="51" customFormat="1" spans="1:12">
+      <c r="A65" s="57">
         <v>63</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="46">
+      <c r="C65" s="59">
         <v>40000</v>
       </c>
-      <c r="D65" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="50" t="s">
+      <c r="D65" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="G65" s="50" t="s">
+      <c r="G65" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="I65" s="50" t="s">
+      <c r="I65" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="50" t="s">
+      <c r="J65" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="50" t="s">
+      <c r="K65" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="L65" s="51"/>
-    </row>
-    <row r="66" s="43" customFormat="1" spans="1:12">
-      <c r="A66" s="24">
+      <c r="L65" s="61"/>
+    </row>
+    <row r="66" s="51" customFormat="1" spans="1:12">
+      <c r="A66" s="57">
         <v>64</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="59">
         <v>40000</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="50" t="s">
+      <c r="D66" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="50" t="s">
+      <c r="F66" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="H66" s="50" t="s">
+      <c r="H66" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="50" t="s">
+      <c r="J66" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="50" t="s">
+      <c r="K66" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="L66" s="51"/>
+      <c r="L66" s="61"/>
     </row>
   </sheetData>
   <sortState ref="A3:A64">
@@ -5958,11 +5979,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22 I24 I26 I28">
       <formula1>"短焦枪机,长焦枪机,半球,球机,防爆摄像机"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F66">
+      <formula1>"热处理,下料,成型,焊接,机加,涂装,装备,调试,检测,公共,电镀,叶片,库房,"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J66">
       <formula1>"覆盖特一级设备,覆盖生产区域和生产设备,覆盖标准图册,覆盖生产区域,覆盖库房,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F66">
-      <formula1>"热处理,下料,成型,焊接,机加,涂装,装备,调试,检测,公共,电镀,叶片,库房,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5976,43 +5997,43 @@
   <sheetPr/>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="K31" workbookViewId="0">
-      <selection activeCell="K39" sqref="$A39:$XFD39"/>
+    <sheetView topLeftCell="K20" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.775" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.21666666666667" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.775" style="19" customWidth="1"/>
-    <col min="3" max="6" width="11.1083333333333" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" style="19" customWidth="1"/>
-    <col min="8" max="8" width="8.66666666666667" style="19" customWidth="1"/>
-    <col min="9" max="9" width="22.3333333333333" style="19" customWidth="1"/>
-    <col min="10" max="10" width="27.775" style="19" customWidth="1"/>
-    <col min="11" max="11" width="29.2166666666667" style="19" customWidth="1"/>
-    <col min="12" max="12" width="19.8833333333333" style="19" customWidth="1"/>
-    <col min="13" max="13" width="12.775" style="19" customWidth="1"/>
-    <col min="14" max="14" width="27.1083333333333" style="19" customWidth="1"/>
-    <col min="15" max="16384" width="16.775" style="19"/>
+    <col min="1" max="1" width="8.21666666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27.775" style="20" customWidth="1"/>
+    <col min="3" max="6" width="11.1083333333333" style="20" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.66666666666667" style="20" customWidth="1"/>
+    <col min="9" max="9" width="22.3333333333333" style="20" customWidth="1"/>
+    <col min="10" max="10" width="27.775" style="20" customWidth="1"/>
+    <col min="11" max="11" width="29.2166666666667" style="20" customWidth="1"/>
+    <col min="12" max="12" width="19.8833333333333" style="20" customWidth="1"/>
+    <col min="13" max="13" width="12.775" style="20" customWidth="1"/>
+    <col min="14" max="14" width="27.1083333333333" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="16.775" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:14">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:15">
       <c r="A2" s="7" t="s">
@@ -6021,16 +6042,16 @@
       <c r="B2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="47" t="s">
         <v>171</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -6057,7 +6078,7 @@
       <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6545,7 +6566,7 @@
       <c r="K15" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="48" t="s">
         <v>205</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -7315,85 +7336,85 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" s="38" customFormat="1" spans="1:15">
-      <c r="A36" s="24">
+    <row r="36" s="46" customFormat="1" spans="1:15">
+      <c r="A36" s="29">
         <v>34</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="24">
+      <c r="G36" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="29">
         <v>23</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="N36" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="O36" s="38" t="s">
+      <c r="O36" s="46" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="37" s="38" customFormat="1" spans="1:15">
-      <c r="A37" s="24">
+    <row r="37" s="46" customFormat="1" spans="1:15">
+      <c r="A37" s="29">
         <v>35</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="24">
+      <c r="G37" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="29">
         <v>23</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="M37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="31" t="s">
+      <c r="N37" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="O37" s="38" t="s">
+      <c r="O37" s="46" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7435,161 +7456,161 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" s="38" customFormat="1" spans="1:15">
-      <c r="A39" s="24">
+    <row r="39" s="46" customFormat="1" spans="1:15">
+      <c r="A39" s="29">
         <v>37</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="24">
+      <c r="G39" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="29">
         <v>23</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I39" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="K39" s="31" t="s">
+      <c r="K39" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="M39" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="N39" s="31" t="s">
+      <c r="N39" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="O39" s="38" t="s">
+      <c r="O39" s="46" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" s="38" customFormat="1" spans="1:15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
+    <row r="40" s="46" customFormat="1" spans="1:15">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="24">
+      <c r="G40" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="29">
         <v>23</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="M40" s="24" t="s">
+      <c r="M40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="O40" s="38" t="s">
+      <c r="O40" s="46" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="41" s="38" customFormat="1" spans="1:15">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24" t="s">
+    <row r="41" s="46" customFormat="1" spans="1:15">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G41" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="24">
+      <c r="G41" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="29">
         <v>23</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="M41" s="24" t="s">
+      <c r="M41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="24" t="s">
+      <c r="N41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="O41" s="38" t="s">
+      <c r="O41" s="46" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="42" s="38" customFormat="1" spans="1:15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24" t="s">
+    <row r="42" s="46" customFormat="1" spans="1:15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="24">
+      <c r="G42" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="29">
         <v>23</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L42" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="M42" s="24" t="s">
+      <c r="M42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="24" t="s">
+      <c r="N42" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="O42" s="38" t="s">
+      <c r="O42" s="46" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7619,7 +7640,7 @@
       <c r="K43" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L43" s="41" t="s">
+      <c r="L43" s="49" t="s">
         <v>271</v>
       </c>
       <c r="M43" s="9" t="s">
@@ -7688,33 +7709,33 @@
   <cols>
     <col min="1" max="1" width="6.88333333333333" customWidth="1"/>
     <col min="2" max="2" width="28.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="8.21666666666667" style="19" customWidth="1"/>
-    <col min="4" max="4" width="10.775" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.1083333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.21666666666667" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.775" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.1083333333333" style="20" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="20.4416666666667" customWidth="1"/>
     <col min="8" max="8" width="9.88333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10" style="19" customWidth="1"/>
+    <col min="9" max="9" width="10" style="20" customWidth="1"/>
     <col min="10" max="10" width="10.1083333333333" customWidth="1"/>
     <col min="11" max="11" width="8.775" customWidth="1"/>
     <col min="12" max="12" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" spans="1:12">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:13">
       <c r="A2" s="7" t="s">
@@ -7744,53 +7765,53 @@
       <c r="I2" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="33" t="s">
         <v>281</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="35" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" s="18" customFormat="1" ht="34.5" customHeight="1" spans="1:13">
-      <c r="A3" s="31">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="44" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7964,40 +7985,40 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:13">
-      <c r="A9" s="31">
+    <row r="9" s="19" customFormat="1" spans="1:13">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31" t="s">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="45" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8103,40 +8124,40 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" s="18" customFormat="1" spans="1:13">
-      <c r="A13" s="31">
+    <row r="13" s="19" customFormat="1" spans="1:13">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="19" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8446,77 +8467,77 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" s="18" customFormat="1" spans="1:13">
-      <c r="A23" s="31">
+    <row r="23" s="19" customFormat="1" spans="1:13">
+      <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31" t="s">
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="45" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="1" spans="1:13">
-      <c r="A24" s="31">
+    <row r="24" s="19" customFormat="1" spans="1:13">
+      <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31" t="s">
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="45" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8588,77 +8609,77 @@
         <v>344</v>
       </c>
     </row>
-    <row r="27" s="18" customFormat="1" spans="1:13">
-      <c r="A27" s="31">
+    <row r="27" s="19" customFormat="1" spans="1:13">
+      <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31" t="s">
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="45" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="28" s="18" customFormat="1" spans="1:13">
-      <c r="A28" s="31">
+    <row r="28" s="19" customFormat="1" spans="1:13">
+      <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31" t="s">
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="45" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8697,7 +8718,7 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E7" sqref="$A7:$XFD9"/>
     </sheetView>
   </sheetViews>
@@ -8713,16 +8734,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1" spans="1:8">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
@@ -8749,61 +8770,61 @@
       <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="35" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A3" s="24">
+    <row r="3" s="19" customFormat="1" ht="27" customHeight="1" spans="1:9">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A4" s="24">
+    <row r="4" s="19" customFormat="1" ht="27" customHeight="1" spans="1:9">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="42" t="s">
         <v>249</v>
       </c>
     </row>
@@ -8857,88 +8878,88 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A7" s="24">
+    <row r="7" s="19" customFormat="1" ht="27" customHeight="1" spans="1:9">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" ht="27" customHeight="1" spans="1:9">
-      <c r="A8" s="24">
+    <row r="8" s="19" customFormat="1" ht="27" customHeight="1" spans="1:9">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A9" s="24">
+    <row r="9" s="19" customFormat="1" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A9" s="29">
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="42" t="s">
         <v>249</v>
       </c>
     </row>
@@ -8986,18 +9007,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" s="19" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" s="20" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -9023,7 +9044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
+    <row r="3" s="20" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>378</v>
@@ -9035,7 +9056,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" s="19" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
+    <row r="4" s="20" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -9045,7 +9066,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" s="19" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
+    <row r="5" s="20" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9055,7 +9076,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" s="19" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
+    <row r="6" s="20" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -9065,7 +9086,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" s="19" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
+    <row r="7" s="20" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9075,7 +9096,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" s="19" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
+    <row r="8" s="20" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -9085,7 +9106,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" s="19" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
+    <row r="9" s="20" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9104,11 +9125,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"菜品摆放区,打饭排队区,后厨区域"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
+      <formula1>"半球,人脸,枪机,球机"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G13">
       <formula1>"半球,人脸,枪机"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"半球,人脸,枪机,球机"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9122,13 +9143,13 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="M31" workbookViewId="0">
-      <selection activeCell="M7" sqref="$A7:$XFD7"/>
+      <selection activeCell="M36" sqref="$A36:$XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.1083333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="14.1083333333333" style="20" customWidth="1"/>
+    <col min="3" max="3" width="25" style="20" customWidth="1"/>
     <col min="4" max="4" width="13.8833333333333" customWidth="1"/>
     <col min="9" max="9" width="15.2166666666667" customWidth="1"/>
     <col min="10" max="10" width="11.6666666666667" customWidth="1"/>
@@ -9141,23 +9162,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" ht="27" spans="1:16">
       <c r="A2" s="7" t="s">
@@ -9187,10 +9208,10 @@
       <c r="I2" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="33" t="s">
         <v>385</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -9202,10 +9223,10 @@
       <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="35" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9213,28 +9234,28 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>387</v>
       </c>
       <c r="J3" s="14" t="s">
@@ -9260,28 +9281,28 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J4" s="14" t="s">
@@ -9307,28 +9328,28 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="23" t="s">
         <v>396</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -9354,28 +9375,28 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>398</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -9398,52 +9419,52 @@
       </c>
     </row>
     <row r="7" s="18" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A7" s="24">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="37" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9451,28 +9472,28 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="22" t="s">
         <v>403</v>
       </c>
       <c r="J8" s="14" t="s">
@@ -9498,28 +9519,28 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -9545,28 +9566,28 @@
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -9592,28 +9613,28 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="22" t="s">
         <v>410</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -9639,28 +9660,28 @@
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="22" t="s">
         <v>413</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -9686,28 +9707,28 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="22" t="s">
         <v>417</v>
       </c>
       <c r="J13" s="14" t="s">
@@ -9733,28 +9754,28 @@
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -9780,28 +9801,28 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>422</v>
       </c>
       <c r="J15" s="14" t="s">
@@ -9827,28 +9848,28 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J16" s="14" t="s">
@@ -9874,28 +9895,28 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -9921,28 +9942,28 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="23" t="s">
         <v>429</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -9968,28 +9989,28 @@
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>432</v>
       </c>
       <c r="J19" s="14" t="s">
@@ -10015,28 +10036,28 @@
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="E20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="22" t="s">
         <v>398</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -10062,28 +10083,28 @@
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="E21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="22" t="s">
         <v>398</v>
       </c>
       <c r="J21" s="14" t="s">
@@ -10109,28 +10130,28 @@
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="E22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="22" t="s">
         <v>437</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -10156,28 +10177,28 @@
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="E23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="22" t="s">
         <v>440</v>
       </c>
       <c r="J23" s="14" t="s">
@@ -10203,28 +10224,28 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="22" t="s">
         <v>443</v>
       </c>
       <c r="J24" s="14" t="s">
@@ -10250,28 +10271,28 @@
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="22" t="s">
         <v>445</v>
       </c>
       <c r="J25" s="14" t="s">
@@ -10297,28 +10318,28 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="23" t="s">
+      <c r="E26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="22" t="s">
         <v>447</v>
       </c>
       <c r="J26" s="14" t="s">
@@ -10344,28 +10365,28 @@
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="23" t="s">
+      <c r="E27" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J27" s="14" t="s">
@@ -10391,28 +10412,28 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="23" t="s">
+      <c r="E28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="22" t="s">
         <v>450</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -10438,28 +10459,28 @@
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="22" t="s">
         <v>453</v>
       </c>
       <c r="J29" s="14" t="s">
@@ -10485,28 +10506,28 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="22" t="s">
         <v>458</v>
       </c>
       <c r="J30" s="14" t="s">
@@ -10532,26 +10553,26 @@
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="23" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="22" t="s">
         <v>462</v>
       </c>
       <c r="J31" s="14" t="s">
@@ -10577,26 +10598,26 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="22" t="s">
         <v>462</v>
       </c>
       <c r="J32" s="14" t="s">
@@ -10622,26 +10643,26 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="23" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="22" t="s">
         <v>467</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -10667,26 +10688,26 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="22" t="s">
         <v>469</v>
       </c>
       <c r="J34" s="14" t="s">
@@ -10712,26 +10733,26 @@
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="23" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="23" t="s">
         <v>393</v>
       </c>
       <c r="J35" s="14" t="s">
@@ -10753,51 +10774,51 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" s="18" customFormat="1" ht="16.5" spans="1:16">
-      <c r="A36" s="24">
+    <row r="36" s="19" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A36" s="29">
         <v>34</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="27" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M36" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="N36" s="33" t="s">
+      <c r="N36" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="P36" s="18" t="s">
+      <c r="P36" s="19" t="s">
         <v>94</v>
       </c>
     </row>
